--- a/src/final/cross_prediction/cross_pred_results.xlsx
+++ b/src/final/cross_prediction/cross_pred_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="(ESN) Tuning Lambda (u to v) " sheetId="1" r:id="rId1"/>
@@ -409,15 +409,15 @@
     <xf numFmtId="167" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="5" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
@@ -11808,14 +11808,14 @@
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
@@ -16897,7 +16897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB146"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -16941,14 +16941,14 @@
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
@@ -17009,7 +17009,7 @@
         <f>INDEX(S10:S999,MATCH(MIN($U10:$U31),$U10:$U31,))</f>
         <v>0.5</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="33">
         <f>INDEX(T10:T999,MATCH(MIN($U10:$U31),$U10:$U31,))</f>
         <v>6.09837962962963E-2</v>
       </c>
@@ -17136,23 +17136,23 @@
       <c r="V10" s="14">
         <v>0.107597183487324</v>
       </c>
-      <c r="X10" s="36">
+      <c r="X10" s="34">
         <f>INDEX(R10:R999,MATCH(MIN($U10:$U31),$U10:$U31,))</f>
         <v>400</v>
       </c>
-      <c r="Y10" s="36">
+      <c r="Y10" s="34">
         <f>INDEX(S10:S999,MATCH(MIN($U10:$U31),$U10:$U31,))</f>
         <v>0.5</v>
       </c>
-      <c r="Z10" s="37">
+      <c r="Z10" s="35">
         <f>INDEX(T10:T999,MATCH(MIN($U10:$U31),$U10:$U31,))</f>
         <v>6.09837962962963E-2</v>
       </c>
-      <c r="AA10" s="36">
+      <c r="AA10" s="34">
         <f>INDEX(U10:U999,MATCH(MIN($U10:$U31),$U10:$U31,))</f>
         <v>1.9468841984600601E-3</v>
       </c>
-      <c r="AB10" s="36">
+      <c r="AB10" s="34">
         <f>INDEX(V10:V999,MATCH(MIN($U10:$U31),$U10:$U31,))</f>
         <v>1.92773433473273E-3</v>
       </c>
@@ -18503,23 +18503,23 @@
       <c r="V33" s="14">
         <v>4.8570564193709302E-2</v>
       </c>
-      <c r="X33" s="36">
+      <c r="X33" s="34">
         <f>INDEX(R33:R1022,MATCH(MIN($U33:$U54),$U33:$U54,))</f>
         <v>400</v>
       </c>
-      <c r="Y33" s="36">
+      <c r="Y33" s="34">
         <f>INDEX(S33:S1022,MATCH(MIN($U33:$U54),$U33:$U54,))</f>
         <v>1</v>
       </c>
-      <c r="Z33" s="37">
+      <c r="Z33" s="35">
         <f>INDEX(T33:T1022,MATCH(MIN($U33:$U54),$U33:$U54,))</f>
         <v>6.0439814814814814E-2</v>
       </c>
-      <c r="AA33" s="36">
+      <c r="AA33" s="34">
         <f>INDEX(U33:U1022,MATCH(MIN($U33:$U54),$U33:$U54,))</f>
         <v>6.3992243896733797E-4</v>
       </c>
-      <c r="AB33" s="36">
+      <c r="AB33" s="34">
         <f>INDEX(V33:V1022,MATCH(MIN($U33:$U54),$U33:$U54,))</f>
         <v>6.14577356034849E-4</v>
       </c>
@@ -19870,23 +19870,23 @@
       <c r="V56" s="14">
         <v>7.9236900637883901E-3</v>
       </c>
-      <c r="X56" s="36">
+      <c r="X56" s="34">
         <f>INDEX(R56:R1045,MATCH(MIN($U56:$U77),$U56:$U77,))</f>
         <v>320</v>
       </c>
-      <c r="Y56" s="36">
+      <c r="Y56" s="34">
         <f>INDEX(S56:S1045,MATCH(MIN($U56:$U77),$U56:$U77,))</f>
         <v>3</v>
       </c>
-      <c r="Z56" s="37">
+      <c r="Z56" s="35">
         <f>INDEX(T56:T1045,MATCH(MIN($U56:$U77),$U56:$U77,))</f>
         <v>4.8761574074074075E-2</v>
       </c>
-      <c r="AA56" s="36">
+      <c r="AA56" s="34">
         <f>INDEX(U56:U1045,MATCH(MIN($U56:$U77),$U56:$U77,))</f>
         <v>5.3591621897534501E-4</v>
       </c>
-      <c r="AB56" s="36">
+      <c r="AB56" s="34">
         <f>INDEX(V56:V1045,MATCH(MIN($U56:$U77),$U56:$U77,))</f>
         <v>5.2501809719255905E-4</v>
       </c>
@@ -21237,23 +21237,23 @@
       <c r="V79" s="14">
         <v>6.8512104481822404E-3</v>
       </c>
-      <c r="X79" s="36">
+      <c r="X79" s="34">
         <f>INDEX(R79:R1068,MATCH(MIN($U79:$U100),$U79:$U100,))</f>
         <v>320</v>
       </c>
-      <c r="Y79" s="36">
+      <c r="Y79" s="34">
         <f>INDEX(S79:S1068,MATCH(MIN($U79:$U100),$U79:$U100,))</f>
         <v>5</v>
       </c>
-      <c r="Z79" s="37">
+      <c r="Z79" s="35">
         <f>INDEX(T79:T1068,MATCH(MIN($U79:$U100),$U79:$U100,))</f>
         <v>4.9236111111111112E-2</v>
       </c>
-      <c r="AA79" s="36">
+      <c r="AA79" s="34">
         <f>INDEX(U79:U1068,MATCH(MIN($U79:$U100),$U79:$U100,))</f>
         <v>5.6201125153771195E-4</v>
       </c>
-      <c r="AB79" s="36">
+      <c r="AB79" s="34">
         <f>INDEX(V79:V1068,MATCH(MIN($U79:$U100),$U79:$U100,))</f>
         <v>5.4827268553921202E-4</v>
       </c>
@@ -22603,23 +22603,23 @@
       <c r="V102" s="14">
         <v>6.74263916044999E-3</v>
       </c>
-      <c r="X102" s="36">
+      <c r="X102" s="34">
         <f>INDEX(R102:R1091,MATCH(MIN($U102:$U123),$U102:$U123,))</f>
         <v>360</v>
       </c>
-      <c r="Y102" s="36">
+      <c r="Y102" s="34">
         <f>INDEX(S102:S1091,MATCH(MIN($U102:$U123),$U102:$U123,))</f>
         <v>7</v>
       </c>
-      <c r="Z102" s="37">
+      <c r="Z102" s="35">
         <f>INDEX(T102:T1091,MATCH(MIN($U102:$U123),$U102:$U123,))</f>
         <v>5.3611111111111109E-2</v>
       </c>
-      <c r="AA102" s="36">
+      <c r="AA102" s="34">
         <f>INDEX(U102:U1091,MATCH(MIN($U102:$U123),$U102:$U123,))</f>
         <v>5.8326342803495697E-4</v>
       </c>
-      <c r="AB102" s="36">
+      <c r="AB102" s="34">
         <f>INDEX(V102:V1091,MATCH(MIN($U102:$U123),$U102:$U123,))</f>
         <v>5.6310650427052395E-4</v>
       </c>
@@ -23835,23 +23835,23 @@
       <c r="V125" s="14">
         <v>6.7246477726784597E-3</v>
       </c>
-      <c r="X125" s="36">
+      <c r="X125" s="34">
         <f>INDEX(R125:R1114,MATCH(MIN($U125:$U146),$U125:$U146,))</f>
         <v>360</v>
       </c>
-      <c r="Y125" s="36">
+      <c r="Y125" s="34">
         <f>INDEX(S125:S1114,MATCH(MIN($U125:$U146),$U125:$U146,))</f>
         <v>9</v>
       </c>
-      <c r="Z125" s="37">
+      <c r="Z125" s="35">
         <f>INDEX(T125:T1114,MATCH(MIN($U125:$U146),$U125:$U146,))</f>
         <v>5.3900462962962963E-2</v>
       </c>
-      <c r="AA125" s="36">
+      <c r="AA125" s="34">
         <f>INDEX(U125:U1114,MATCH(MIN($U125:$U146),$U125:$U146,))</f>
         <v>5.95039713677671E-4</v>
       </c>
-      <c r="AB125" s="36">
+      <c r="AB125" s="34">
         <f>INDEX(V125:V1114,MATCH(MIN($U125:$U146),$U125:$U146,))</f>
         <v>5.7389507673446096E-4</v>
       </c>
@@ -24275,12 +24275,12 @@
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
     </row>
@@ -25030,12 +25030,12 @@
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
     </row>
@@ -25737,8 +25737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25785,12 +25785,12 @@
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
     </row>
@@ -26541,12 +26541,12 @@
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
     </row>
@@ -27285,40 +27285,40 @@
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="L4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="V4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="W4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
     </row>
     <row r="6" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
@@ -29030,10 +29030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S84"/>
+  <dimension ref="A2:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29042,7 +29042,7 @@
     <col min="11" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -29054,7 +29054,7 @@
       </c>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -29065,22 +29065,22 @@
         <v>0.11403716545503299</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <f>INDEX(B10:B999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
         <v>30000</v>
@@ -29130,7 +29130,7 @@
         <v>0.56261743125468955</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -29168,7 +29168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -29212,20 +29212,8 @@
         <f>SQRT(L10)</f>
         <v>0.60646736472454932</v>
       </c>
-      <c r="O10">
-        <v>4.19431733036447E-2</v>
-      </c>
-      <c r="P10">
-        <v>4.2538085349599401E-2</v>
-      </c>
-      <c r="R10">
-        <v>4.1922182907626199E-2</v>
-      </c>
-      <c r="S10">
-        <v>3.5114984223105203E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -29269,20 +29257,8 @@
         <f t="shared" ref="M11:M27" si="5">SQRT(L11)</f>
         <v>0.57955926160847049</v>
       </c>
-      <c r="O11">
-        <v>3.8303822364852497E-2</v>
-      </c>
-      <c r="P11">
-        <v>3.93127532198825E-2</v>
-      </c>
-      <c r="R11">
-        <v>3.8262241880163098E-2</v>
-      </c>
-      <c r="S11">
-        <v>3.1726030636865903E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -29326,20 +29302,8 @@
         <f t="shared" si="5"/>
         <v>0.57012070569506856</v>
       </c>
-      <c r="O12">
-        <v>3.7066368744110997E-2</v>
-      </c>
-      <c r="P12">
-        <v>3.8512312341913102E-2</v>
-      </c>
-      <c r="R12">
-        <v>3.7004750261252002E-2</v>
-      </c>
-      <c r="S12">
-        <v>3.0404812918410198E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -29383,20 +29347,8 @@
         <f t="shared" si="5"/>
         <v>0.57858037042778732</v>
       </c>
-      <c r="O13">
-        <v>3.8174539266063297E-2</v>
-      </c>
-      <c r="P13">
-        <v>3.91762890745102E-2</v>
-      </c>
-      <c r="R13">
-        <v>3.8132958781374099E-2</v>
-      </c>
-      <c r="S13">
-        <v>3.1156607178412701E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -29440,20 +29392,8 @@
         <f t="shared" si="5"/>
         <v>0.57518690860773325</v>
       </c>
-      <c r="O14">
-        <v>3.7728053519437803E-2</v>
-      </c>
-      <c r="P14">
-        <v>3.9230286273474399E-2</v>
-      </c>
-      <c r="R14">
-        <v>3.7666435036578703E-2</v>
-      </c>
-      <c r="S14">
-        <v>3.0527896827280999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -29497,20 +29437,8 @@
         <f t="shared" si="5"/>
         <v>0.5835508138713047</v>
       </c>
-      <c r="O15">
-        <v>3.8833252980261197E-2</v>
-      </c>
-      <c r="P15">
-        <v>4.0429504438430297E-2</v>
-      </c>
-      <c r="R15">
-        <v>3.8771634497402098E-2</v>
-      </c>
-      <c r="S15">
-        <v>3.0429590608009999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>7</v>
       </c>
@@ -29554,20 +29482,8 @@
         <f t="shared" si="5"/>
         <v>0.60372164139588969</v>
       </c>
-      <c r="O16">
-        <v>4.1564245571402599E-2</v>
-      </c>
-      <c r="P16">
-        <v>4.2139050977899599E-2</v>
-      </c>
-      <c r="R16">
-        <v>4.1545575732546601E-2</v>
-      </c>
-      <c r="S16">
-        <v>3.4743038910165301E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>8</v>
       </c>
@@ -29611,20 +29527,8 @@
         <f t="shared" si="5"/>
         <v>0.58176278215976018</v>
       </c>
-      <c r="O17">
-        <v>3.8595643128012502E-2</v>
-      </c>
-      <c r="P17">
-        <v>3.9600999624662701E-2</v>
-      </c>
-      <c r="R17">
-        <v>3.8558542316160002E-2</v>
-      </c>
-      <c r="S17">
-        <v>3.2275799412341703E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -29668,20 +29572,8 @@
         <f t="shared" si="5"/>
         <v>0.57791843014962085</v>
       </c>
-      <c r="O18">
-        <v>3.8087240036972003E-2</v>
-      </c>
-      <c r="P18">
-        <v>3.95962848221494E-2</v>
-      </c>
-      <c r="R18">
-        <v>1.5256232786179E-2</v>
-      </c>
-      <c r="S18">
-        <v>1.1543610267841699E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -29725,20 +29617,8 @@
         <f t="shared" si="5"/>
         <v>0.58294268624589174</v>
       </c>
-      <c r="O19">
-        <v>3.87523576468045E-2</v>
-      </c>
-      <c r="P19">
-        <v>3.9766418871839397E-2</v>
-      </c>
-      <c r="R19">
-        <v>1.5778006633034799E-2</v>
-      </c>
-      <c r="S19">
-        <v>1.18945317272829E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -29782,20 +29662,8 @@
         <f t="shared" si="5"/>
         <v>0.58427730025654256</v>
       </c>
-      <c r="O20">
-        <v>3.8930003391524602E-2</v>
-      </c>
-      <c r="P20">
-        <v>4.0510741587071797E-2</v>
-      </c>
-      <c r="R20">
-        <v>1.53687406048491E-2</v>
-      </c>
-      <c r="S20">
-        <v>1.1540408551732001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>12</v>
       </c>
@@ -29839,20 +29707,8 @@
         <f t="shared" si="5"/>
         <v>0.59403952189738907</v>
       </c>
-      <c r="O21">
-        <v>4.0241771763216E-2</v>
-      </c>
-      <c r="P21">
-        <v>4.1934101365382802E-2</v>
-      </c>
-      <c r="R21">
-        <v>1.54700212863489E-2</v>
-      </c>
-      <c r="S21">
-        <v>1.1581214581661999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>13</v>
       </c>
@@ -29896,20 +29752,8 @@
         <f t="shared" si="5"/>
         <v>0.60624463294383202</v>
       </c>
-      <c r="O22">
-        <v>4.1912370781589998E-2</v>
-      </c>
-      <c r="P22">
-        <v>4.2488933472399203E-2</v>
-      </c>
-      <c r="R22">
-        <v>1.7280473385033999E-2</v>
-      </c>
-      <c r="S22">
-        <v>1.3452788739235E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>14</v>
       </c>
@@ -29953,20 +29797,8 @@
         <f t="shared" si="5"/>
         <v>0.5901608984404676</v>
       </c>
-      <c r="O23">
-        <v>3.97179913615772E-2</v>
-      </c>
-      <c r="P23">
-        <v>4.07702713563797E-2</v>
-      </c>
-      <c r="R23">
-        <v>1.7142612531675702E-2</v>
-      </c>
-      <c r="S23">
-        <v>1.29397934605343E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>15</v>
       </c>
@@ -30010,20 +29842,8 @@
         <f t="shared" si="5"/>
         <v>0.59153070104654015</v>
       </c>
-      <c r="O24">
-        <v>3.9902581523224102E-2</v>
-      </c>
-      <c r="P24">
-        <v>4.1544330924118501E-2</v>
-      </c>
-      <c r="R24">
-        <v>1.6837984365064E-2</v>
-      </c>
-      <c r="S24">
-        <v>1.25533610068434E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>16</v>
       </c>
@@ -30067,20 +29887,8 @@
         <f t="shared" si="5"/>
         <v>0.59299229028452616</v>
       </c>
-      <c r="O25">
-        <v>4.0100012477673697E-2</v>
-      </c>
-      <c r="P25">
-        <v>4.1173511885192603E-2</v>
-      </c>
-      <c r="R25">
-        <v>1.72247088357343E-2</v>
-      </c>
-      <c r="S25">
-        <v>1.28592876438107E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>17</v>
       </c>
@@ -30124,20 +29932,8 @@
         <f t="shared" si="5"/>
         <v>0.59935506461818167</v>
       </c>
-      <c r="O26">
-        <v>4.09651710732052E-2</v>
-      </c>
-      <c r="P26">
-        <v>4.2697314376788802E-2</v>
-      </c>
-      <c r="R26">
-        <v>1.69935223858288E-2</v>
-      </c>
-      <c r="S26">
-        <v>1.25097112337983E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>18</v>
       </c>
@@ -30181,24 +29977,12 @@
         <f t="shared" si="5"/>
         <v>0.6090602074033411</v>
       </c>
-      <c r="O27">
-        <v>4.2302581018313801E-2</v>
-      </c>
-      <c r="P27">
-        <v>4.4148497042922501E-2</v>
-      </c>
-      <c r="R27">
-        <v>1.71245759320603E-2</v>
-      </c>
-      <c r="S27">
-        <v>1.2526075980619099E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>19</v>
       </c>
@@ -30242,20 +30026,8 @@
         <f>SQRT(L29)</f>
         <v>0.60033692950431927</v>
       </c>
-      <c r="O29">
-        <v>4.1099499492237797E-2</v>
-      </c>
-      <c r="P29">
-        <v>4.1711889621815601E-2</v>
-      </c>
-      <c r="R29">
-        <v>1.5540724864340201E-2</v>
-      </c>
-      <c r="S29">
-        <v>1.2424908467846199E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>20</v>
       </c>
@@ -30299,20 +30071,8 @@
         <f t="shared" ref="M30:M46" si="8">SQRT(L30)</f>
         <v>0.57658925610583123</v>
       </c>
-      <c r="O30">
-        <v>3.7912245256941701E-2</v>
-      </c>
-      <c r="P30">
-        <v>3.8982093595689202E-2</v>
-      </c>
-      <c r="R30">
-        <v>1.47030683632815E-2</v>
-      </c>
-      <c r="S30">
-        <v>1.1326662544580601E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>21</v>
       </c>
@@ -30356,20 +30116,8 @@
         <f t="shared" si="8"/>
         <v>0.56764902741105827</v>
       </c>
-      <c r="O31">
-        <v>3.67456733428572E-2</v>
-      </c>
-      <c r="P31">
-        <v>3.8291758456477497E-2</v>
-      </c>
-      <c r="R31">
-        <v>1.39683967051195E-2</v>
-      </c>
-      <c r="S31">
-        <v>1.0599881284475801E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>22</v>
       </c>
@@ -30413,20 +30161,8 @@
         <f t="shared" si="8"/>
         <v>0.57572435406025246</v>
       </c>
-      <c r="O32">
-        <v>3.7798591438983897E-2</v>
-      </c>
-      <c r="P32">
-        <v>3.8862126861590497E-2</v>
-      </c>
-      <c r="R32">
-        <v>1.45688423706699E-2</v>
-      </c>
-      <c r="S32">
-        <v>1.1027066208066301E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>23</v>
       </c>
@@ -30470,20 +30206,8 @@
         <f t="shared" si="8"/>
         <v>0.57272662425089249</v>
       </c>
-      <c r="O33">
-        <v>3.7405990474293202E-2</v>
-      </c>
-      <c r="P33">
-        <v>3.9008248399442301E-2</v>
-      </c>
-      <c r="R33">
-        <v>1.40803601566282E-2</v>
-      </c>
-      <c r="S33">
-        <v>1.0566618504927501E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>24</v>
       </c>
@@ -30527,20 +30251,8 @@
         <f t="shared" si="8"/>
         <v>0.58105080502650885</v>
       </c>
-      <c r="O34">
-        <v>3.8501232136844102E-2</v>
-      </c>
-      <c r="P34">
-        <v>4.0196661661758601E-2</v>
-      </c>
-      <c r="R34">
-        <v>1.41569455862891E-2</v>
-      </c>
-      <c r="S34">
-        <v>1.04806101511392E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>25</v>
       </c>
@@ -30584,20 +30296,8 @@
         <f t="shared" si="8"/>
         <v>0.6002278297570891</v>
       </c>
-      <c r="O35">
-        <v>4.10845627547161E-2</v>
-      </c>
-      <c r="P35">
-        <v>4.1677425041859603E-2</v>
-      </c>
-      <c r="R35">
-        <v>1.5961577866163999E-2</v>
-      </c>
-      <c r="S35">
-        <v>1.2628633802625199E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>26</v>
       </c>
@@ -30641,20 +30341,8 @@
         <f t="shared" si="8"/>
         <v>0.57969706992069425</v>
       </c>
-      <c r="O36">
-        <v>3.8322040390292703E-2</v>
-      </c>
-      <c r="P36">
-        <v>3.9375490151948897E-2</v>
-      </c>
-      <c r="R36">
-        <v>1.5645010644694701E-2</v>
-      </c>
-      <c r="S36">
-        <v>1.1958935953440299E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>27</v>
       </c>
@@ -30698,20 +30386,8 @@
         <f t="shared" si="8"/>
         <v>0.57622533648911389</v>
       </c>
-      <c r="O37">
-        <v>3.7864403034555898E-2</v>
-      </c>
-      <c r="P37">
-        <v>3.9451004280334802E-2</v>
-      </c>
-      <c r="R37">
-        <v>1.5117367471598199E-2</v>
-      </c>
-      <c r="S37">
-        <v>1.1457639574368701E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>28</v>
       </c>
@@ -30755,20 +30431,8 @@
         <f t="shared" si="8"/>
         <v>0.58093722043536744</v>
       </c>
-      <c r="O38">
-        <v>3.84861810630358E-2</v>
-      </c>
-      <c r="P38">
-        <v>3.95487480397664E-2</v>
-      </c>
-      <c r="R38">
-        <v>1.55968093137196E-2</v>
-      </c>
-      <c r="S38">
-        <v>1.1771606759639199E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>29</v>
       </c>
@@ -30812,20 +30476,8 @@
         <f t="shared" si="8"/>
         <v>0.58254811823179675</v>
       </c>
-      <c r="O39">
-        <v>3.86999159009907E-2</v>
-      </c>
-      <c r="P39">
-        <v>4.0357593762143401E-2</v>
-      </c>
-      <c r="R39">
-        <v>1.52423495172864E-2</v>
-      </c>
-      <c r="S39">
-        <v>1.1464568304443701E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>30</v>
       </c>
@@ -30869,20 +30521,8 @@
         <f t="shared" si="8"/>
         <v>0.59224600936114535</v>
       </c>
-      <c r="O40">
-        <v>3.9999144240531997E-2</v>
-      </c>
-      <c r="P40">
-        <v>4.1767346734735797E-2</v>
-      </c>
-      <c r="R40">
-        <v>1.5350329957412199E-2</v>
-      </c>
-      <c r="S40">
-        <v>1.15125384631093E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>31</v>
       </c>
@@ -30926,20 +30566,8 @@
         <f t="shared" si="8"/>
         <v>0.60346755858721368</v>
       </c>
-      <c r="O41">
-        <v>4.15292674052214E-2</v>
-      </c>
-      <c r="P41">
-        <v>4.2125143220881699E-2</v>
-      </c>
-      <c r="R41">
-        <v>1.7003285316169001E-2</v>
-      </c>
-      <c r="S41">
-        <v>1.32679022735751E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>32</v>
       </c>
@@ -30983,20 +30611,8 @@
         <f t="shared" si="8"/>
         <v>0.58823266100642757</v>
       </c>
-      <c r="O42">
-        <v>3.9458873540028597E-2</v>
-      </c>
-      <c r="P42">
-        <v>4.0557405382578897E-2</v>
-      </c>
-      <c r="R42">
-        <v>1.6973009996440701E-2</v>
-      </c>
-      <c r="S42">
-        <v>1.28375835901475E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>33</v>
       </c>
@@ -31040,20 +30656,8 @@
         <f t="shared" si="8"/>
         <v>0.58982434394116212</v>
       </c>
-      <c r="O43">
-        <v>3.9672703857046597E-2</v>
-      </c>
-      <c r="P43">
-        <v>4.1385673873994298E-2</v>
-      </c>
-      <c r="R43">
-        <v>1.6719216699284001E-2</v>
-      </c>
-      <c r="S43">
-        <v>1.2494682295538399E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>34</v>
       </c>
@@ -31097,20 +30701,8 @@
         <f t="shared" si="8"/>
         <v>0.59106797035224623</v>
       </c>
-      <c r="O44">
-        <v>3.9840177569080197E-2</v>
-      </c>
-      <c r="P44">
-        <v>4.0959888993653E-2</v>
-      </c>
-      <c r="R44">
-        <v>1.7070331911401102E-2</v>
-      </c>
-      <c r="S44">
-        <v>1.27663025908281E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>35</v>
       </c>
@@ -31154,20 +30746,8 @@
         <f t="shared" si="8"/>
         <v>0.59759248957090028</v>
       </c>
-      <c r="O45">
-        <v>4.07245857371984E-2</v>
-      </c>
-      <c r="P45">
-        <v>4.25270387613121E-2</v>
-      </c>
-      <c r="R45">
-        <v>1.6882672323499701E-2</v>
-      </c>
-      <c r="S45">
-        <v>1.24618648179883E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>36</v>
       </c>
@@ -31211,24 +30791,12 @@
         <f t="shared" si="8"/>
         <v>0.607264274761803</v>
       </c>
-      <c r="O46">
-        <v>4.2053474032939298E-2</v>
-      </c>
-      <c r="P46">
-        <v>4.3968974846100399E-2</v>
-      </c>
-      <c r="R46">
-        <v>1.70193108367304E-2</v>
-      </c>
-      <c r="S46">
-        <v>1.2477593612796101E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>37</v>
       </c>
@@ -31272,20 +30840,8 @@
         <f>SQRT(L48)</f>
         <v>0.59478483181446851</v>
       </c>
-      <c r="O48">
-        <v>4.0342813547567198E-2</v>
-      </c>
-      <c r="P48">
-        <v>4.0955996373010298E-2</v>
-      </c>
-      <c r="R48">
-        <v>1.51135326652627E-2</v>
-      </c>
-      <c r="S48">
-        <v>1.2117674719430101E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>38</v>
       </c>
@@ -31329,20 +30885,8 @@
         <f t="shared" ref="M49:M65" si="11">SQRT(L49)</f>
         <v>0.57340632801495495</v>
       </c>
-      <c r="O49">
-        <v>3.7494828947852298E-2</v>
-      </c>
-      <c r="P49">
-        <v>3.8585261423251603E-2</v>
-      </c>
-      <c r="R49">
-        <v>1.4416131055394001E-2</v>
-      </c>
-      <c r="S49">
-        <v>1.1136261841202399E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>39</v>
       </c>
@@ -31386,20 +30930,8 @@
         <f t="shared" si="11"/>
         <v>0.56520167004460653</v>
       </c>
-      <c r="O50">
-        <v>3.6429506385042297E-2</v>
-      </c>
-      <c r="P50">
-        <v>3.8016334026398702E-2</v>
-      </c>
-      <c r="R50">
-        <v>1.3751921055157599E-2</v>
-      </c>
-      <c r="S50">
-        <v>1.04506512027445E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>40</v>
       </c>
@@ -31443,20 +30975,8 @@
         <f t="shared" si="11"/>
         <v>0.57266446536591109</v>
       </c>
-      <c r="O51">
-        <v>3.7397871457691002E-2</v>
-      </c>
-      <c r="P51">
-        <v>3.8482918416654202E-2</v>
-      </c>
-      <c r="R51">
-        <v>1.4302991989047499E-2</v>
-      </c>
-      <c r="S51">
-        <v>1.0843829878104999E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>41</v>
       </c>
@@ -31500,20 +31020,8 @@
         <f t="shared" si="11"/>
         <v>0.57029757836974493</v>
       </c>
-      <c r="O52">
-        <v>3.7089371047576897E-2</v>
-      </c>
-      <c r="P52">
-        <v>3.8732333009183398E-2</v>
-      </c>
-      <c r="R52">
-        <v>1.3877876707552E-2</v>
-      </c>
-      <c r="S52">
-        <v>1.04344665160551E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>42</v>
       </c>
@@ -31557,20 +31065,8 @@
         <f t="shared" si="11"/>
         <v>0.57860542502504397</v>
       </c>
-      <c r="O53">
-        <v>3.8177845525537199E-2</v>
-      </c>
-      <c r="P53">
-        <v>3.9913403406275798E-2</v>
-      </c>
-      <c r="R53">
-        <v>1.3960392656604601E-2</v>
-      </c>
-      <c r="S53">
-        <v>1.0361515790557701E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43</v>
       </c>
@@ -31614,20 +31110,8 @@
         <f t="shared" si="11"/>
         <v>0.59544367162052136</v>
       </c>
-      <c r="O54">
-        <v>4.0432238062064203E-2</v>
-      </c>
-      <c r="P54">
-        <v>4.1030913268503597E-2</v>
-      </c>
-      <c r="R54">
-        <v>1.5612330738447901E-2</v>
-      </c>
-      <c r="S54">
-        <v>1.2371238614134901E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>44</v>
       </c>
@@ -31671,20 +31155,8 @@
         <f t="shared" si="11"/>
         <v>0.57735870496912245</v>
       </c>
-      <c r="O55">
-        <v>3.8013499306247797E-2</v>
-      </c>
-      <c r="P55">
-        <v>3.9098000032023301E-2</v>
-      </c>
-      <c r="R55">
-        <v>1.54155974942967E-2</v>
-      </c>
-      <c r="S55">
-        <v>1.1797244115484801E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>45</v>
       </c>
@@ -31728,20 +31200,8 @@
         <f t="shared" si="11"/>
         <v>0.57442092692975599</v>
       </c>
-      <c r="O56">
-        <v>3.7627634838903301E-2</v>
-      </c>
-      <c r="P56">
-        <v>3.9267458922072097E-2</v>
-      </c>
-      <c r="R56">
-        <v>1.4953158974933701E-2</v>
-      </c>
-      <c r="S56">
-        <v>1.13491750670663E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>46</v>
       </c>
@@ -31785,20 +31245,8 @@
         <f t="shared" si="11"/>
         <v>0.578704452476416</v>
       </c>
-      <c r="O57">
-        <v>3.8190914805929101E-2</v>
-      </c>
-      <c r="P57">
-        <v>3.9285270098772598E-2</v>
-      </c>
-      <c r="R57">
-        <v>1.53907628654559E-2</v>
-      </c>
-      <c r="S57">
-        <v>1.1626594323428E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>47</v>
       </c>
@@ -31842,20 +31290,8 @@
         <f t="shared" si="11"/>
         <v>0.58073503526118131</v>
       </c>
-      <c r="O58">
-        <v>3.8459396822437701E-2</v>
-      </c>
-      <c r="P58">
-        <v>4.0169978435455597E-2</v>
-      </c>
-      <c r="R58">
-        <v>1.5090645638551999E-2</v>
-      </c>
-      <c r="S58">
-        <v>1.1368363381200701E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>48</v>
       </c>
@@ -31899,20 +31335,8 @@
         <f t="shared" si="11"/>
         <v>0.59036791108335618</v>
       </c>
-      <c r="O59">
-        <v>3.9745860264564899E-2</v>
-      </c>
-      <c r="P59">
-        <v>4.1565880607902499E-2</v>
-      </c>
-      <c r="R59">
-        <v>1.52054268799899E-2</v>
-      </c>
-      <c r="S59">
-        <v>1.1421649575348299E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>49</v>
       </c>
@@ -31956,20 +31380,8 @@
         <f t="shared" si="11"/>
         <v>0.6003212567020153</v>
       </c>
-      <c r="O60">
-        <v>4.10973535775341E-2</v>
-      </c>
-      <c r="P60">
-        <v>4.1699325602815397E-2</v>
-      </c>
-      <c r="R60">
-        <v>1.67076645903468E-2</v>
-      </c>
-      <c r="S60">
-        <v>1.3067168674977E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>50</v>
       </c>
@@ -32013,20 +31425,8 @@
         <f t="shared" si="11"/>
         <v>0.58613422392153092</v>
       </c>
-      <c r="O61">
-        <v>3.9177847759318901E-2</v>
-      </c>
-      <c r="P61">
-        <v>4.0297051707616799E-2</v>
-      </c>
-      <c r="R61">
-        <v>1.6774250798327599E-2</v>
-      </c>
-      <c r="S61">
-        <v>1.2715360569566399E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>51</v>
       </c>
@@ -32070,20 +31470,8 @@
         <f t="shared" si="11"/>
         <v>0.5881084743519942</v>
       </c>
-      <c r="O62">
-        <v>3.9442214321492503E-2</v>
-      </c>
-      <c r="P62">
-        <v>4.1190974624779497E-2</v>
-      </c>
-      <c r="R62">
-        <v>1.6571806765825901E-2</v>
-      </c>
-      <c r="S62">
-        <v>1.24196846419575E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>52</v>
       </c>
@@ -32127,20 +31515,8 @@
         <f t="shared" si="11"/>
         <v>0.58897795514136198</v>
       </c>
-      <c r="O63">
-        <v>3.9558926118944703E-2</v>
-      </c>
-      <c r="P63">
-        <v>4.0699297114427699E-2</v>
-      </c>
-      <c r="R63">
-        <v>1.6888505715850599E-2</v>
-      </c>
-      <c r="S63">
-        <v>1.2656603266784699E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>53</v>
       </c>
@@ -32184,20 +31560,8 @@
         <f t="shared" si="11"/>
         <v>0.5958136697383084</v>
       </c>
-      <c r="O64">
-        <v>4.0482501422268398E-2</v>
-      </c>
-      <c r="P64">
-        <v>4.2319758371281102E-2</v>
-      </c>
-      <c r="R64">
-        <v>1.6745516495704899E-2</v>
-      </c>
-      <c r="S64">
-        <v>1.2394953608112699E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>54</v>
       </c>
@@ -32241,24 +31605,12 @@
         <f t="shared" si="11"/>
         <v>0.60542961531856088</v>
       </c>
-      <c r="O65">
-        <v>4.17997549903701E-2</v>
-      </c>
-      <c r="P65">
-        <v>4.3749069968613698E-2</v>
-      </c>
-      <c r="R65">
-        <v>1.6886655416510101E-2</v>
-      </c>
-      <c r="S65">
-        <v>1.24129437485762E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>55</v>
       </c>
@@ -32302,20 +31654,8 @@
         <f>SQRT(L67)</f>
         <v>0.58986159576713049</v>
       </c>
-      <c r="O67">
-        <v>3.9677715272206301E-2</v>
-      </c>
-      <c r="P67">
-        <v>4.0287964797439998E-2</v>
-      </c>
-      <c r="R67">
-        <v>1.4724309549009801E-2</v>
-      </c>
-      <c r="S67">
-        <v>1.1838815813237801E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>56</v>
       </c>
@@ -32359,20 +31699,8 @@
         <f t="shared" ref="M68:M84" si="14">SQRT(L68)</f>
         <v>0.57003263027272988</v>
       </c>
-      <c r="O68">
-        <v>3.7054917190503099E-2</v>
-      </c>
-      <c r="P68">
-        <v>3.8151850266827901E-2</v>
-      </c>
-      <c r="R68">
-        <v>1.4137794816706999E-2</v>
-      </c>
-      <c r="S68">
-        <v>1.09485025669528E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>57</v>
       </c>
@@ -32416,20 +31744,8 @@
         <f t="shared" si="14"/>
         <v>0.56261743125468955</v>
       </c>
-      <c r="O69">
-        <v>3.6097138923188603E-2</v>
-      </c>
-      <c r="P69">
-        <v>3.7701500576133702E-2</v>
-      </c>
-      <c r="R69">
-        <v>1.3528474846806001E-2</v>
-      </c>
-      <c r="S69">
-        <v>1.02996112423913E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>58</v>
       </c>
@@ -32473,20 +31789,8 @@
         <f t="shared" si="14"/>
         <v>0.56944303508409166</v>
       </c>
-      <c r="O70">
-        <v>3.6978303673494299E-2</v>
-      </c>
-      <c r="P70">
-        <v>3.8070981242025001E-2</v>
-      </c>
-      <c r="R70">
-        <v>1.40424305954673E-2</v>
-      </c>
-      <c r="S70">
-        <v>1.06685863421997E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>59</v>
       </c>
@@ -32530,20 +31834,8 @@
         <f t="shared" si="14"/>
         <v>0.56773459388770087</v>
       </c>
-      <c r="O71">
-        <v>3.6756752141986801E-2</v>
-      </c>
-      <c r="P71">
-        <v>3.8417226725003202E-2</v>
-      </c>
-      <c r="R71">
-        <v>1.36665135727675E-2</v>
-      </c>
-      <c r="S71">
-        <v>1.02947831085239E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>60</v>
       </c>
@@ -32587,20 +31879,8 @@
         <f t="shared" si="14"/>
         <v>0.57601665395885504</v>
       </c>
-      <c r="O72">
-        <v>3.78369824817789E-2</v>
-      </c>
-      <c r="P72">
-        <v>3.9589351659673401E-2</v>
-      </c>
-      <c r="R72">
-        <v>1.37542207141787E-2</v>
-      </c>
-      <c r="S72">
-        <v>1.0231348583967801E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>61</v>
       </c>
@@ -32644,20 +31924,8 @@
         <f t="shared" si="14"/>
         <v>0.59121426315486059</v>
       </c>
-      <c r="O73">
-        <v>3.9859901366676297E-2</v>
-      </c>
-      <c r="P73">
-        <v>4.0458523835612298E-2</v>
-      </c>
-      <c r="R73">
-        <v>1.52776208303945E-2</v>
-      </c>
-      <c r="S73">
-        <v>1.21373526058742E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>62</v>
       </c>
@@ -32701,20 +31969,8 @@
         <f t="shared" si="14"/>
         <v>0.57487530626924377</v>
       </c>
-      <c r="O74">
-        <v>3.7687186924133899E-2</v>
-      </c>
-      <c r="P74">
-        <v>3.8785458096136399E-2</v>
-      </c>
-      <c r="R74">
-        <v>1.51807594897752E-2</v>
-      </c>
-      <c r="S74">
-        <v>1.1632316862328599E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>63</v>
       </c>
@@ -32758,20 +32014,8 @@
         <f t="shared" si="14"/>
         <v>0.5725533578823937</v>
       </c>
-      <c r="O75">
-        <v>3.7383361109846198E-2</v>
-      </c>
-      <c r="P75">
-        <v>3.9050556705293997E-2</v>
-      </c>
-      <c r="R75">
-        <v>1.47766793824049E-2</v>
-      </c>
-      <c r="S75">
-        <v>1.1231197070343601E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>64</v>
       </c>
@@ -32815,20 +32059,8 @@
         <f t="shared" si="14"/>
         <v>0.57630950550448989</v>
       </c>
-      <c r="O76">
-        <v>3.7875465520295498E-2</v>
-      </c>
-      <c r="P76">
-        <v>3.8984194651476699E-2</v>
-      </c>
-      <c r="R76">
-        <v>1.5174910005909001E-2</v>
-      </c>
-      <c r="S76">
-        <v>1.14797841261506E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>65</v>
       </c>
@@ -32872,20 +32104,8 @@
         <f t="shared" si="14"/>
         <v>0.57888353509437074</v>
       </c>
-      <c r="O77">
-        <v>3.8214555153627698E-2</v>
-      </c>
-      <c r="P77">
-        <v>3.9952459964605599E-2</v>
-      </c>
-      <c r="R77">
-        <v>1.4924988700081699E-2</v>
-      </c>
-      <c r="S77">
-        <v>1.12639347469834E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>66</v>
       </c>
@@ -32929,20 +32149,8 @@
         <f t="shared" si="14"/>
         <v>0.58843278702378299</v>
       </c>
-      <c r="O78">
-        <v>3.94857271679665E-2</v>
-      </c>
-      <c r="P78">
-        <v>4.1331769875997397E-2</v>
-      </c>
-      <c r="R78">
-        <v>1.5045920002651701E-2</v>
-      </c>
-      <c r="S78">
-        <v>1.1319497157657499E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>67</v>
       </c>
@@ -32986,20 +32194,8 @@
         <f t="shared" si="14"/>
         <v>0.59591819001716373</v>
       </c>
-      <c r="O79">
-        <v>4.0496705908281402E-2</v>
-      </c>
-      <c r="P79">
-        <v>4.1099104296929499E-2</v>
-      </c>
-      <c r="R79">
-        <v>1.641284689546E-2</v>
-      </c>
-      <c r="S79">
-        <v>1.2870928146189699E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>68</v>
       </c>
@@ -33043,20 +32239,8 @@
         <f t="shared" si="14"/>
         <v>0.58372477598420269</v>
       </c>
-      <c r="O80">
-        <v>3.8856409564128502E-2</v>
-      </c>
-      <c r="P80">
-        <v>3.9991950754073899E-2</v>
-      </c>
-      <c r="R80">
-        <v>1.6563657032191301E-2</v>
-      </c>
-      <c r="S80">
-        <v>1.25865216215262E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>69</v>
       </c>
@@ -33100,20 +32284,8 @@
         <f t="shared" si="14"/>
         <v>0.5861856536564285</v>
       </c>
-      <c r="O81">
-        <v>3.9184723299561401E-2</v>
-      </c>
-      <c r="P81">
-        <v>4.0962239744433297E-2</v>
-      </c>
-      <c r="R81">
-        <v>1.6407458997443801E-2</v>
-      </c>
-      <c r="S81">
-        <v>1.23303562961824E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>70</v>
       </c>
@@ -33157,20 +32329,8 @@
         <f t="shared" si="14"/>
         <v>0.58662889227059467</v>
       </c>
-      <c r="O82">
-        <v>3.9244004002645903E-2</v>
-      </c>
-      <c r="P82">
-        <v>4.0401074176228097E-2</v>
-      </c>
-      <c r="R82">
-        <v>1.6694118315298701E-2</v>
-      </c>
-      <c r="S82">
-        <v>1.2539890096234799E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>71</v>
       </c>
@@ -33214,20 +32374,8 @@
         <f t="shared" si="14"/>
         <v>0.59385984616628418</v>
       </c>
-      <c r="O83">
-        <v>4.0217432048376703E-2</v>
-      </c>
-      <c r="P83">
-        <v>4.2082800452783301E-2</v>
-      </c>
-      <c r="R83">
-        <v>1.6591048594701299E-2</v>
-      </c>
-      <c r="S83">
-        <v>1.23198303445158E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>72</v>
       </c>
@@ -33270,18 +32418,6 @@
       <c r="M84" s="15">
         <f t="shared" si="14"/>
         <v>0.60342244359307728</v>
-      </c>
-      <c r="O84">
-        <v>4.1523058214373298E-2</v>
-      </c>
-      <c r="P84">
-        <v>4.34994955113732E-2</v>
-      </c>
-      <c r="R84">
-        <v>1.6736603682720699E-2</v>
-      </c>
-      <c r="S84">
-        <v>1.2336923251280101E-2</v>
       </c>
     </row>
   </sheetData>
@@ -33335,14 +32471,14 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
@@ -36697,10 +35833,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U84"/>
+  <dimension ref="A2:O84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9:U84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36709,7 +35845,7 @@
     <col min="11" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -36721,7 +35857,7 @@
       </c>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -36733,22 +35869,22 @@
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <f>INDEX(B10:B999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
         <v>15000</v>
@@ -36798,7 +35934,7 @@
         <v>0.26724459105074577</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -36836,7 +35972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -36881,17 +36017,8 @@
         <v>0.31262974050666892</v>
       </c>
       <c r="O10" s="20"/>
-      <c r="S10">
-        <v>5.8680555555555543E-3</v>
-      </c>
-      <c r="T10">
-        <v>6.36816312983461E-2</v>
-      </c>
-      <c r="U10">
-        <v>6.5272923092268204E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -36936,17 +36063,8 @@
         <v>0.28608720674112337</v>
       </c>
       <c r="O11" s="20"/>
-      <c r="S11">
-        <v>2.5694444444444447E-2</v>
-      </c>
-      <c r="T11">
-        <v>5.5144674113645403E-2</v>
-      </c>
-      <c r="U11">
-        <v>5.7917867534159798E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -36991,17 +36109,8 @@
         <v>0.28097725006399127</v>
       </c>
       <c r="O12" s="20"/>
-      <c r="S12">
-        <v>7.9328703703703707E-2</v>
-      </c>
-      <c r="T12">
-        <v>5.3030885289306301E-2</v>
-      </c>
-      <c r="U12">
-        <v>5.7105741201650802E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -37046,17 +36155,8 @@
         <v>0.28205026941176708</v>
       </c>
       <c r="O13" s="20"/>
-      <c r="S13">
-        <v>9.5949074074074079E-3</v>
-      </c>
-      <c r="T13">
-        <v>5.4336521437797297E-2</v>
-      </c>
-      <c r="U13">
-        <v>5.7064825912533701E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -37101,17 +36201,8 @@
         <v>0.28620018802047548</v>
       </c>
       <c r="O14" s="20"/>
-      <c r="S14">
-        <v>2.8229166666666666E-2</v>
-      </c>
-      <c r="T14">
-        <v>5.3637464888339398E-2</v>
-      </c>
-      <c r="U14">
-        <v>5.7763922190184697E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -37156,17 +36247,8 @@
         <v>0.29544506556556127</v>
       </c>
       <c r="O15" s="20"/>
-      <c r="S15">
-        <v>1.5231481481481483E-2</v>
-      </c>
-      <c r="T15">
-        <v>5.48726072575298E-2</v>
-      </c>
-      <c r="U15">
-        <v>5.91041374345323E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>7</v>
       </c>
@@ -37211,17 +36293,8 @@
         <v>0.3870421514468847</v>
       </c>
       <c r="O16" s="20"/>
-      <c r="S16">
-        <v>1.0127314814814815E-2</v>
-      </c>
-      <c r="T16">
-        <v>8.25093184474886E-2</v>
-      </c>
-      <c r="U16">
-        <v>8.4528581906844993E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>8</v>
       </c>
@@ -37266,17 +36339,8 @@
         <v>0.35594445284658371</v>
       </c>
       <c r="O17" s="20"/>
-      <c r="S17">
-        <v>5.4212962962962963E-2</v>
-      </c>
-      <c r="T17">
-        <v>7.1928557982787397E-2</v>
-      </c>
-      <c r="U17">
-        <v>7.5461548393814595E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -37321,17 +36385,8 @@
         <v>0.34594467125218026</v>
       </c>
       <c r="O18" s="20"/>
-      <c r="S18">
-        <v>0.15482638888888889</v>
-      </c>
-      <c r="T18">
-        <v>6.8866912984073603E-2</v>
-      </c>
-      <c r="U18">
-        <v>7.4027344630208505E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -37376,17 +36431,8 @@
         <v>0.34934236519893314</v>
       </c>
       <c r="O19" s="20"/>
-      <c r="S19">
-        <v>2.0671296296296295E-2</v>
-      </c>
-      <c r="T19">
-        <v>7.0636644305871799E-2</v>
-      </c>
-      <c r="U19">
-        <v>7.4097875203225E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -37431,17 +36477,8 @@
         <v>0.3491593761476019</v>
       </c>
       <c r="O20" s="20"/>
-      <c r="S20">
-        <v>6.2581018518518508E-2</v>
-      </c>
-      <c r="T20">
-        <v>6.9376478875299102E-2</v>
-      </c>
-      <c r="U20">
-        <v>7.4580259008708599E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>12</v>
       </c>
@@ -37486,17 +36523,8 @@
         <v>0.35605014413368924</v>
       </c>
       <c r="O21" s="20"/>
-      <c r="S21">
-        <v>3.7442129629629624E-2</v>
-      </c>
-      <c r="T21">
-        <v>7.0510477131286803E-2</v>
-      </c>
-      <c r="U21">
-        <v>7.5810725866334E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>13</v>
       </c>
@@ -37541,17 +36569,8 @@
         <v>0.4521838006524968</v>
       </c>
       <c r="O22" s="20"/>
-      <c r="S22">
-        <v>1.5949074074074074E-2</v>
-      </c>
-      <c r="T22">
-        <v>9.7388616573214806E-2</v>
-      </c>
-      <c r="U22">
-        <v>9.9718735486734697E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>14</v>
       </c>
@@ -37596,17 +36615,8 @@
         <v>0.42481671396405729</v>
       </c>
       <c r="O23" s="20"/>
-      <c r="S23">
-        <v>9.2025462962962976E-2</v>
-      </c>
-      <c r="T23">
-        <v>8.6182168932898096E-2</v>
-      </c>
-      <c r="U23">
-        <v>9.0313967208571003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>15</v>
       </c>
@@ -37651,17 +36661,8 @@
         <v>0.41470325982733658</v>
       </c>
       <c r="O24" s="20"/>
-      <c r="S24">
-        <v>0.25372685185185184</v>
-      </c>
-      <c r="T24">
-        <v>8.2653656470009607E-2</v>
-      </c>
-      <c r="U24">
-        <v>8.8690904201059406E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>16</v>
       </c>
@@ -37706,17 +36707,8 @@
         <v>0.4180771139110574</v>
       </c>
       <c r="O25" s="20"/>
-      <c r="S25">
-        <v>3.9282407407407412E-2</v>
-      </c>
-      <c r="T25">
-        <v>8.4779709145469201E-2</v>
-      </c>
-      <c r="U25">
-        <v>8.8833607609342793E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>17</v>
       </c>
@@ -37761,17 +36753,8 @@
         <v>0.41702212535658195</v>
       </c>
       <c r="O26" s="20"/>
-      <c r="S26">
-        <v>0.10506944444444444</v>
-      </c>
-      <c r="T26">
-        <v>8.3022342261996798E-2</v>
-      </c>
-      <c r="U26">
-        <v>8.9090953888545696E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>18</v>
       </c>
@@ -37816,21 +36799,12 @@
         <v>0.42265569584707491</v>
       </c>
       <c r="O27" s="20"/>
-      <c r="S27">
-        <v>6.8113425925925938E-2</v>
-      </c>
-      <c r="T27">
-        <v>8.4087942847623304E-2</v>
-      </c>
-      <c r="U27">
-        <v>9.0247204523991098E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>19</v>
       </c>
@@ -37875,17 +36849,8 @@
         <v>0.30471256008199954</v>
       </c>
       <c r="O29" s="20"/>
-      <c r="S29">
-        <v>6.1342592592592594E-3</v>
-      </c>
-      <c r="T29">
-        <v>6.0448633070870797E-2</v>
-      </c>
-      <c r="U29">
-        <v>6.1958297189649299E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>20</v>
       </c>
@@ -37930,17 +36895,8 @@
         <v>0.28016238597942555</v>
       </c>
       <c r="O30" s="20"/>
-      <c r="S30">
-        <v>2.6736111111111113E-2</v>
-      </c>
-      <c r="T30">
-        <v>5.3456441658501101E-2</v>
-      </c>
-      <c r="U30">
-        <v>5.6148816797885699E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>21</v>
       </c>
@@ -37985,17 +36941,8 @@
         <v>0.27603159458091553</v>
       </c>
       <c r="O31" s="20"/>
-      <c r="S31">
-        <v>8.1620370370370371E-2</v>
-      </c>
-      <c r="T31">
-        <v>5.1918152699855398E-2</v>
-      </c>
-      <c r="U31">
-        <v>5.5917562581699699E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>22</v>
       </c>
@@ -38040,17 +36987,8 @@
         <v>0.2765958926669988</v>
       </c>
       <c r="O32" s="20"/>
-      <c r="S32">
-        <v>9.8842592592592576E-3</v>
-      </c>
-      <c r="T32">
-        <v>5.28930466020512E-2</v>
-      </c>
-      <c r="U32">
-        <v>5.5554127889547701E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>23</v>
       </c>
@@ -38095,17 +37033,8 @@
         <v>0.28154109661849069</v>
       </c>
       <c r="O33" s="20"/>
-      <c r="S33">
-        <v>2.9120370370370366E-2</v>
-      </c>
-      <c r="T33">
-        <v>5.2638954992968501E-2</v>
-      </c>
-      <c r="U33">
-        <v>5.66996831254424E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>24</v>
       </c>
@@ -38150,17 +37079,8 @@
         <v>0.29099791913907969</v>
       </c>
       <c r="O34" s="20"/>
-      <c r="S34">
-        <v>1.5497685185185186E-2</v>
-      </c>
-      <c r="T34">
-        <v>5.3923177276287398E-2</v>
-      </c>
-      <c r="U34">
-        <v>5.8093153484946099E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>25</v>
       </c>
@@ -38205,17 +37125,8 @@
         <v>0.37870459354845315</v>
       </c>
       <c r="O35" s="20"/>
-      <c r="S35">
-        <v>1.045138888888889E-2</v>
-      </c>
-      <c r="T35">
-        <v>7.9402277537169594E-2</v>
-      </c>
-      <c r="U35">
-        <v>8.1346697800539297E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>26</v>
       </c>
@@ -38260,17 +37171,8 @@
         <v>0.35090314038085446</v>
       </c>
       <c r="O36" s="20"/>
-      <c r="S36">
-        <v>5.5324074074074074E-2</v>
-      </c>
-      <c r="T36">
-        <v>7.0297580607959903E-2</v>
-      </c>
-      <c r="U36">
-        <v>7.3759828428408197E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>27</v>
       </c>
@@ -38315,17 +37217,8 @@
         <v>0.34237265499863884</v>
       </c>
       <c r="O37" s="20"/>
-      <c r="S37">
-        <v>0.15666666666666665</v>
-      </c>
-      <c r="T37">
-        <v>6.7757221366739201E-2</v>
-      </c>
-      <c r="U37">
-        <v>7.2853134876703404E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>28</v>
       </c>
@@ -38370,17 +37263,8 @@
         <v>0.34499365131336746</v>
       </c>
       <c r="O38" s="20"/>
-      <c r="S38">
-        <v>2.1053240740740744E-2</v>
-      </c>
-      <c r="T38">
-        <v>6.92400967807833E-2</v>
-      </c>
-      <c r="U38">
-        <v>7.2643606524135595E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>29</v>
       </c>
@@ -38425,17 +37309,8 @@
         <v>0.34589066413317116</v>
       </c>
       <c r="O39" s="20"/>
-      <c r="S39">
-        <v>6.3576388888888891E-2</v>
-      </c>
-      <c r="T39">
-        <v>6.8365108416310397E-2</v>
-      </c>
-      <c r="U39">
-        <v>7.3512734539866606E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>30</v>
       </c>
@@ -38480,17 +37355,8 @@
         <v>0.35294690896937081</v>
       </c>
       <c r="O40" s="20"/>
-      <c r="S40">
-        <v>3.8136574074074073E-2</v>
-      </c>
-      <c r="T40">
-        <v>6.9554623586728606E-2</v>
-      </c>
-      <c r="U40">
-        <v>7.4803441104990501E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>31</v>
       </c>
@@ -38535,17 +37401,8 @@
         <v>0.44358392706380978</v>
       </c>
       <c r="O41" s="20"/>
-      <c r="S41">
-        <v>1.653935185185185E-2</v>
-      </c>
-      <c r="T41">
-        <v>9.4481815658782706E-2</v>
-      </c>
-      <c r="U41">
-        <v>9.6748354898150604E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>32</v>
       </c>
@@ -38590,17 +37447,8 @@
         <v>0.41959937599394409</v>
       </c>
       <c r="O42" s="20"/>
-      <c r="S42">
-        <v>9.4166666666666662E-2</v>
-      </c>
-      <c r="T42">
-        <v>8.4592365877267206E-2</v>
-      </c>
-      <c r="U42">
-        <v>8.8667624045492596E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>33</v>
       </c>
@@ -38645,17 +37493,8 @@
         <v>0.41086298960562562</v>
       </c>
       <c r="O43" s="20"/>
-      <c r="S43">
-        <v>0.25598379629629631</v>
-      </c>
-      <c r="T43">
-        <v>8.1521580728729101E-2</v>
-      </c>
-      <c r="U43">
-        <v>8.7510389507254704E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>34</v>
       </c>
@@ -38700,17 +37539,8 @@
         <v>0.41352851191530754</v>
       </c>
       <c r="O44" s="20"/>
-      <c r="S44">
-        <v>4.0092592592592589E-2</v>
-      </c>
-      <c r="T44">
-        <v>8.3397811407210296E-2</v>
-      </c>
-      <c r="U44">
-        <v>8.7406717891604202E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>35</v>
       </c>
@@ -38755,17 +37585,8 @@
         <v>0.41350747801001636</v>
       </c>
       <c r="O45" s="20"/>
-      <c r="S45">
-        <v>0.10611111111111111</v>
-      </c>
-      <c r="T45">
-        <v>8.1986340915264105E-2</v>
-      </c>
-      <c r="U45">
-        <v>8.8014686584658303E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>36</v>
       </c>
@@ -38810,21 +37631,12 @@
         <v>0.419300415731855</v>
       </c>
       <c r="O46" s="20"/>
-      <c r="S46">
-        <v>6.8564814814814815E-2</v>
-      </c>
-      <c r="T46">
-        <v>8.31001220989811E-2</v>
-      </c>
-      <c r="U46">
-        <v>8.9223216514906806E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>37</v>
       </c>
@@ -38869,17 +37681,8 @@
         <v>0.29922118714362372</v>
       </c>
       <c r="O48" s="20"/>
-      <c r="S48">
-        <v>6.3888888888888884E-3</v>
-      </c>
-      <c r="T48">
-        <v>5.76247734370256E-2</v>
-      </c>
-      <c r="U48">
-        <v>5.9060074766478898E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>38</v>
       </c>
@@ -38924,17 +37727,8 @@
         <v>0.27506228058000809</v>
       </c>
       <c r="O49" s="20"/>
-      <c r="S49">
-        <v>2.7847222222222221E-2</v>
-      </c>
-      <c r="T49">
-        <v>5.1620328006966303E-2</v>
-      </c>
-      <c r="U49">
-        <v>5.4215824754896599E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>39</v>
       </c>
@@ -38979,17 +37773,8 @@
         <v>0.27148626346386007</v>
       </c>
       <c r="O50" s="20"/>
-      <c r="S50">
-        <v>8.3912037037037035E-2</v>
-      </c>
-      <c r="T50">
-        <v>5.0593319582967998E-2</v>
-      </c>
-      <c r="U50">
-        <v>5.4487454443279598E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>40</v>
       </c>
@@ -39034,17 +37819,8 @@
         <v>0.27173920128777862</v>
       </c>
       <c r="O51" s="20"/>
-      <c r="S51">
-        <v>1.0254629629629629E-2</v>
-      </c>
-      <c r="T51">
-        <v>5.12588894768672E-2</v>
-      </c>
-      <c r="U51">
-        <v>5.3834310074505197E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>41</v>
       </c>
@@ -39089,17 +37865,8 @@
         <v>0.27723003681012248</v>
       </c>
       <c r="O52" s="20"/>
-      <c r="S52">
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="T52">
-        <v>5.1418479872888501E-2</v>
-      </c>
-      <c r="U52">
-        <v>5.5382810660641199E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>42</v>
       </c>
@@ -39144,17 +37911,8 @@
         <v>0.28680754204157738</v>
       </c>
       <c r="O53" s="20"/>
-      <c r="S53">
-        <v>1.5983796296296295E-2</v>
-      </c>
-      <c r="T53">
-        <v>5.2755045236367697E-2</v>
-      </c>
-      <c r="U53">
-        <v>5.68330768970551E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43</v>
       </c>
@@ -39199,17 +37957,8 @@
         <v>0.37136535996275166</v>
       </c>
       <c r="O54" s="20"/>
-      <c r="S54">
-        <v>1.0868055555555556E-2</v>
-      </c>
-      <c r="T54">
-        <v>7.6180351496092799E-2</v>
-      </c>
-      <c r="U54">
-        <v>7.8040005478927005E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>44</v>
       </c>
@@ -39254,17 +38003,8 @@
         <v>0.34492457582116504</v>
       </c>
       <c r="O55" s="20"/>
-      <c r="S55">
-        <v>5.7708333333333334E-2</v>
-      </c>
-      <c r="T55">
-        <v>6.8382344706957296E-2</v>
-      </c>
-      <c r="U55">
-        <v>7.1744379667151803E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>45</v>
       </c>
@@ -39309,17 +38049,8 @@
         <v>0.33725931923471991</v>
       </c>
       <c r="O56" s="20"/>
-      <c r="S56">
-        <v>0.15995370370370371</v>
-      </c>
-      <c r="T56">
-        <v>6.6382642673522299E-2</v>
-      </c>
-      <c r="U56">
-        <v>7.1371184499870996E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>46</v>
       </c>
@@ -39364,17 +38095,8 @@
         <v>0.33943110937670451</v>
       </c>
       <c r="O57" s="20"/>
-      <c r="S57">
-        <v>2.165509259259259E-2</v>
-      </c>
-      <c r="T57">
-        <v>6.7558203409830805E-2</v>
-      </c>
-      <c r="U57">
-        <v>7.0874461334193006E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>47</v>
       </c>
@@ -39419,17 +38141,8 @@
         <v>0.34098128769242902</v>
       </c>
       <c r="O58" s="20"/>
-      <c r="S58">
-        <v>6.5439814814814812E-2</v>
-      </c>
-      <c r="T58">
-        <v>6.7095843531070301E-2</v>
-      </c>
-      <c r="U58">
-        <v>7.2145056958147893E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>48</v>
       </c>
@@ -39474,17 +38187,8 @@
         <v>0.34818401774252161</v>
       </c>
       <c r="O59" s="20"/>
-      <c r="S59">
-        <v>3.923611111111111E-2</v>
-      </c>
-      <c r="T59">
-        <v>6.8352316510962199E-2</v>
-      </c>
-      <c r="U59">
-        <v>7.3508417396398407E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>49</v>
       </c>
@@ -39529,17 +38233,8 @@
         <v>0.4354883982963923</v>
       </c>
       <c r="O60" s="20"/>
-      <c r="S60">
-        <v>1.712962962962963E-2</v>
-      </c>
-      <c r="T60">
-        <v>9.1213887029788998E-2</v>
-      </c>
-      <c r="U60">
-        <v>9.33982776769791E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>50</v>
       </c>
@@ -39584,17 +38279,8 @@
         <v>0.41389818949348861</v>
       </c>
       <c r="O61" s="20"/>
-      <c r="S61">
-        <v>9.6076388888888878E-2</v>
-      </c>
-      <c r="T61">
-        <v>8.2651613650370895E-2</v>
-      </c>
-      <c r="U61">
-        <v>8.6633084300190205E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>51</v>
       </c>
@@ -39639,17 +38325,8 @@
         <v>0.40641219258726974</v>
       </c>
       <c r="O62" s="20"/>
-      <c r="S62">
-        <v>0.26099537037037041</v>
-      </c>
-      <c r="T62">
-        <v>8.0099945594844402E-2</v>
-      </c>
-      <c r="U62">
-        <v>8.5989395645663394E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>52</v>
       </c>
@@ -39694,17 +38371,8 @@
         <v>0.40840153646614175</v>
       </c>
       <c r="O63" s="20"/>
-      <c r="S63">
-        <v>4.0937500000000002E-2</v>
-      </c>
-      <c r="T63">
-        <v>8.1683686407655706E-2</v>
-      </c>
-      <c r="U63">
-        <v>8.5611393412542397E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>53</v>
       </c>
@@ -39749,17 +38417,8 @@
         <v>0.40934426170165394</v>
       </c>
       <c r="O64" s="20"/>
-      <c r="S64">
-        <v>0.10812500000000001</v>
-      </c>
-      <c r="T64">
-        <v>8.0674096540123502E-2</v>
-      </c>
-      <c r="U64">
-        <v>8.6612389292884798E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>54</v>
       </c>
@@ -39804,21 +38463,12 @@
         <v>0.41530798515997863</v>
       </c>
       <c r="O65" s="20"/>
-      <c r="S65">
-        <v>6.9756944444444455E-2</v>
-      </c>
-      <c r="T65">
-        <v>8.1849134514250702E-2</v>
-      </c>
-      <c r="U65">
-        <v>8.7887387094671796E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>55</v>
       </c>
@@ -39863,17 +38513,8 @@
         <v>0.29539199602075622</v>
       </c>
       <c r="O67" s="20"/>
-      <c r="S67">
-        <v>6.6435185185185182E-3</v>
-      </c>
-      <c r="T67">
-        <v>5.5422776924774299E-2</v>
-      </c>
-      <c r="U67">
-        <v>5.6799111887766499E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>56</v>
       </c>
@@ -39918,17 +38559,8 @@
         <v>0.27087200822064239</v>
       </c>
       <c r="O68" s="20"/>
-      <c r="S68">
-        <v>2.9178240740740741E-2</v>
-      </c>
-      <c r="T68">
-        <v>4.9880191652842999E-2</v>
-      </c>
-      <c r="U68">
-        <v>5.2380974635682601E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>57</v>
       </c>
@@ -39973,17 +38605,8 @@
         <v>0.26724459105074577</v>
       </c>
       <c r="O69" s="20"/>
-      <c r="S69">
-        <v>8.6874999999999994E-2</v>
-      </c>
-      <c r="T69">
-        <v>4.91905638458019E-2</v>
-      </c>
-      <c r="U69">
-        <v>5.2968147933952603E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>58</v>
       </c>
@@ -40028,17 +38651,8 @@
         <v>0.26749414952400041</v>
       </c>
       <c r="O70" s="20"/>
-      <c r="S70">
-        <v>1.0601851851851854E-2</v>
-      </c>
-      <c r="T70">
-        <v>4.9633077373734402E-2</v>
-      </c>
-      <c r="U70">
-        <v>5.2120134361712603E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>59</v>
       </c>
@@ -40083,17 +38697,8 @@
         <v>0.27304433292996189</v>
       </c>
       <c r="O71" s="20"/>
-      <c r="S71">
-        <v>3.0983796296296297E-2</v>
-      </c>
-      <c r="T71">
-        <v>5.0094129759672201E-2</v>
-      </c>
-      <c r="U71">
-        <v>5.3948579698134699E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>60</v>
       </c>
@@ -40138,17 +38743,8 @@
         <v>0.28264364927650054</v>
       </c>
       <c r="O72" s="20"/>
-      <c r="S72">
-        <v>1.6423611111111111E-2</v>
-      </c>
-      <c r="T72">
-        <v>5.1463672382402299E-2</v>
-      </c>
-      <c r="U72">
-        <v>5.5434628550923598E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>61</v>
       </c>
@@ -40193,17 +38789,8 @@
         <v>0.36584467696277168</v>
       </c>
       <c r="O73" s="20"/>
-      <c r="S73">
-        <v>1.1249999999999998E-2</v>
-      </c>
-      <c r="T73">
-        <v>7.3271277938409998E-2</v>
-      </c>
-      <c r="U73">
-        <v>7.50525321891643E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>62</v>
       </c>
@@ -40248,17 +38835,8 @@
         <v>0.33967630630027412</v>
       </c>
       <c r="O74" s="20"/>
-      <c r="S74">
-        <v>5.9201388888888894E-2</v>
-      </c>
-      <c r="T74">
-        <v>6.6376161351503496E-2</v>
-      </c>
-      <c r="U74">
-        <v>6.9628232160222597E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>63</v>
       </c>
@@ -40303,17 +38881,8 @@
         <v>0.33232699527940096</v>
       </c>
       <c r="O75" s="20"/>
-      <c r="S75">
-        <v>0.16313657407407409</v>
-      </c>
-      <c r="T75">
-        <v>6.4849846843719999E-2</v>
-      </c>
-      <c r="U75">
-        <v>6.9710250537241294E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>64</v>
       </c>
@@ -40358,17 +38927,8 @@
         <v>0.33430508268276476</v>
       </c>
       <c r="O76" s="20"/>
-      <c r="S76">
-        <v>2.2442129629629631E-2</v>
-      </c>
-      <c r="T76">
-        <v>6.5746855238983604E-2</v>
-      </c>
-      <c r="U76">
-        <v>6.89639711576093E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>65</v>
       </c>
@@ -40413,17 +38973,8 @@
         <v>0.33615685773235815</v>
       </c>
       <c r="O77" s="20"/>
-      <c r="S77">
-        <v>6.6203703703703709E-2</v>
-      </c>
-      <c r="T77">
-        <v>6.5658436327849304E-2</v>
-      </c>
-      <c r="U77">
-        <v>7.0587626279569202E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>66</v>
       </c>
@@ -40468,17 +39019,8 @@
         <v>0.34345231027601092</v>
       </c>
       <c r="O78" s="20"/>
-      <c r="S78">
-        <v>3.9803240740740743E-2</v>
-      </c>
-      <c r="T78">
-        <v>6.6962076829149897E-2</v>
-      </c>
-      <c r="U78">
-        <v>7.2002166754070507E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>67</v>
       </c>
@@ -40523,17 +39065,8 @@
         <v>0.42824214168989444</v>
       </c>
       <c r="O79" s="20"/>
-      <c r="S79">
-        <v>1.7627314814814814E-2</v>
-      </c>
-      <c r="T79">
-        <v>8.7980943511836399E-2</v>
-      </c>
-      <c r="U79">
-        <v>9.0080410933747704E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>68</v>
       </c>
@@ -40578,17 +39111,8 @@
         <v>0.40777837309752618</v>
       </c>
       <c r="O80" s="20"/>
-      <c r="S80">
-        <v>9.8055555555555562E-2</v>
-      </c>
-      <c r="T80">
-        <v>8.0521035149715203E-2</v>
-      </c>
-      <c r="U80">
-        <v>8.4390674709017094E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>69</v>
       </c>
@@ -40633,17 +39157,8 @@
         <v>0.40101111705084991</v>
       </c>
       <c r="O81" s="20"/>
-      <c r="S81">
-        <v>0.2636458333333333</v>
-      </c>
-      <c r="T81">
-        <v>7.8472872549752201E-2</v>
-      </c>
-      <c r="U81">
-        <v>8.4234117929614993E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>70</v>
       </c>
@@ -40688,17 +39203,8 @@
         <v>0.40260329932718492</v>
       </c>
       <c r="O82" s="20"/>
-      <c r="S82">
-        <v>4.2256944444444444E-2</v>
-      </c>
-      <c r="T82">
-        <v>7.9767044266517706E-2</v>
-      </c>
-      <c r="U82">
-        <v>8.3594803303877793E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>71</v>
       </c>
@@ -40743,17 +39249,8 @@
         <v>0.40411794922624489</v>
       </c>
       <c r="O83" s="20"/>
-      <c r="S83">
-        <v>0.10971064814814814</v>
-      </c>
-      <c r="T83">
-        <v>7.9150153673859705E-2</v>
-      </c>
-      <c r="U83">
-        <v>8.4969014982683597E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>72</v>
       </c>
@@ -40798,15 +39295,6 @@
         <v>0.41020763649763531</v>
       </c>
       <c r="O84" s="20"/>
-      <c r="S84">
-        <v>7.0914351851851853E-2</v>
-      </c>
-      <c r="T84">
-        <v>8.0389228961540896E-2</v>
-      </c>
-      <c r="U84">
-        <v>8.6313497716712498E-2</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -40819,10 +39307,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T96"/>
+  <dimension ref="A2:P96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:M84"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40831,7 +39319,7 @@
     <col min="11" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -40843,7 +39331,7 @@
       </c>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -40855,22 +39343,22 @@
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <f t="shared" ref="B8:K8" si="0">INDEX(B10:B999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
         <v>15000</v>
@@ -40920,7 +39408,7 @@
         <v>0.12221787232213219</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
@@ -40958,7 +39446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -41005,17 +39493,8 @@
       <c r="N10" s="20"/>
       <c r="O10" s="26"/>
       <c r="P10" s="26"/>
-      <c r="R10">
-        <v>5.2777777777777771E-3</v>
-      </c>
-      <c r="S10">
-        <v>3.0560004560687401E-2</v>
-      </c>
-      <c r="T10">
-        <v>3.1368767666524099E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -41062,17 +39541,8 @@
       <c r="N11" s="20"/>
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
-      <c r="R11">
-        <v>2.1712962962962962E-2</v>
-      </c>
-      <c r="S11">
-        <v>2.9776027733399602E-2</v>
-      </c>
-      <c r="T11">
-        <v>3.1383249359092702E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -41119,17 +39589,8 @@
       <c r="N12" s="20"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
-      <c r="R12">
-        <v>6.6793981481481482E-2</v>
-      </c>
-      <c r="S12">
-        <v>2.9416502745658699E-2</v>
-      </c>
-      <c r="T12">
-        <v>3.1848919635625202E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -41176,17 +39637,8 @@
       <c r="N13" s="20"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
-      <c r="R13">
-        <v>8.113425925925925E-3</v>
-      </c>
-      <c r="S13">
-        <v>3.0050946226471701E-2</v>
-      </c>
-      <c r="T13">
-        <v>3.1673438235717E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -41233,17 +39685,8 @@
       <c r="N14" s="20"/>
       <c r="O14" s="26"/>
       <c r="P14" s="26"/>
-      <c r="R14">
-        <v>2.2754629629629628E-2</v>
-      </c>
-      <c r="S14">
-        <v>2.9617178036526699E-2</v>
-      </c>
-      <c r="T14">
-        <v>3.2066666262000998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -41290,17 +39733,8 @@
       <c r="N15" s="20"/>
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
-      <c r="R15">
-        <v>1.2199074074074072E-2</v>
-      </c>
-      <c r="S15">
-        <v>2.99707179279094E-2</v>
-      </c>
-      <c r="T15">
-        <v>3.2450281595532503E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>7</v>
       </c>
@@ -41347,17 +39781,8 @@
       <c r="N16" s="20"/>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
-      <c r="R16">
-        <v>8.819444444444444E-3</v>
-      </c>
-      <c r="S16">
-        <v>3.5904595796491197E-2</v>
-      </c>
-      <c r="T16">
-        <v>3.6852925265165697E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>8</v>
       </c>
@@ -41404,17 +39829,8 @@
       <c r="N17" s="20"/>
       <c r="O17" s="26"/>
       <c r="P17" s="26"/>
-      <c r="R17">
-        <v>4.4965277777777778E-2</v>
-      </c>
-      <c r="S17">
-        <v>3.4396074271763097E-2</v>
-      </c>
-      <c r="T17">
-        <v>3.6247815933350601E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -41461,17 +39877,8 @@
       <c r="N18" s="20"/>
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
-      <c r="R18">
-        <v>0.13229166666666667</v>
-      </c>
-      <c r="S18">
-        <v>3.3389895854239203E-2</v>
-      </c>
-      <c r="T18">
-        <v>3.6142433810549199E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -41518,17 +39925,8 @@
       <c r="N19" s="20"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
-      <c r="R19">
-        <v>1.6805555555555556E-2</v>
-      </c>
-      <c r="S19">
-        <v>3.4369076786024501E-2</v>
-      </c>
-      <c r="T19">
-        <v>3.6219318868745298E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -41575,17 +39973,8 @@
       <c r="N20" s="20"/>
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
-      <c r="R20">
-        <v>5.1979166666666667E-2</v>
-      </c>
-      <c r="S20">
-        <v>3.3391948405975001E-2</v>
-      </c>
-      <c r="T20">
-        <v>3.61446609717209E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>12</v>
       </c>
@@ -41632,17 +40021,8 @@
       <c r="N21" s="20"/>
       <c r="O21" s="26"/>
       <c r="P21" s="26"/>
-      <c r="R21">
-        <v>2.9675925925925925E-2</v>
-      </c>
-      <c r="S21">
-        <v>3.3537784408436098E-2</v>
-      </c>
-      <c r="T21">
-        <v>3.6302903161891401E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>13</v>
       </c>
@@ -41689,17 +40069,8 @@
       <c r="N22" s="20"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
-      <c r="R22">
-        <v>1.3541666666666667E-2</v>
-      </c>
-      <c r="S22">
-        <v>3.9733072013496303E-2</v>
-      </c>
-      <c r="T22">
-        <v>4.0773095590474699E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>14</v>
       </c>
@@ -41746,17 +40117,8 @@
       <c r="N23" s="20"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
-      <c r="R23">
-        <v>7.8090277777777786E-2</v>
-      </c>
-      <c r="S23">
-        <v>3.75042115895707E-2</v>
-      </c>
-      <c r="T23">
-        <v>3.95031039763169E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>15</v>
       </c>
@@ -41803,17 +40165,8 @@
       <c r="N24" s="20"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
-      <c r="R24">
-        <v>0.21891203703703702</v>
-      </c>
-      <c r="S24">
-        <v>3.6116270519153802E-2</v>
-      </c>
-      <c r="T24">
-        <v>3.9063549982387799E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>16</v>
       </c>
@@ -41860,17 +40213,8 @@
       <c r="N25" s="20"/>
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
-      <c r="R25">
-        <v>3.1678240740740743E-2</v>
-      </c>
-      <c r="S25">
-        <v>3.7288444976730603E-2</v>
-      </c>
-      <c r="T25">
-        <v>3.9275352578826701E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>17</v>
       </c>
@@ -41917,17 +40261,8 @@
       <c r="N26" s="20"/>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
-      <c r="R26">
-        <v>9.1122685185185182E-2</v>
-      </c>
-      <c r="S26">
-        <v>3.6078137983716403E-2</v>
-      </c>
-      <c r="T26">
-        <v>3.90221735333455E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>18</v>
       </c>
@@ -41974,21 +40309,12 @@
       <c r="N27" s="20"/>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
-      <c r="R27">
-        <v>5.7557870370370377E-2</v>
-      </c>
-      <c r="S27">
-        <v>3.6210154651333898E-2</v>
-      </c>
-      <c r="T27">
-        <v>3.9165420785534803E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>19</v>
       </c>
@@ -42035,17 +40361,8 @@
       <c r="N29" s="20"/>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
-      <c r="R29">
-        <v>5.5324074074074069E-3</v>
-      </c>
-      <c r="S29">
-        <v>2.83172063908224E-2</v>
-      </c>
-      <c r="T29">
-        <v>2.9066854224202701E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>20</v>
       </c>
@@ -42092,17 +40409,8 @@
       <c r="N30" s="20"/>
       <c r="O30" s="26"/>
       <c r="P30" s="26"/>
-      <c r="R30">
-        <v>2.2719907407407411E-2</v>
-      </c>
-      <c r="S30">
-        <v>2.8248548549613801E-2</v>
-      </c>
-      <c r="T30">
-        <v>2.97748118448046E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>21</v>
       </c>
@@ -42149,17 +40457,8 @@
       <c r="N31" s="20"/>
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
-      <c r="R31">
-        <v>6.8877314814814808E-2</v>
-      </c>
-      <c r="S31">
-        <v>2.83694196418133E-2</v>
-      </c>
-      <c r="T31">
-        <v>3.07184663359336E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>22</v>
       </c>
@@ -42206,17 +40505,8 @@
       <c r="N32" s="20"/>
       <c r="O32" s="26"/>
       <c r="P32" s="26"/>
-      <c r="R32">
-        <v>8.4375000000000006E-3</v>
-      </c>
-      <c r="S32">
-        <v>2.8671698714847399E-2</v>
-      </c>
-      <c r="T32">
-        <v>3.02214659411527E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>23</v>
       </c>
@@ -42263,17 +40553,8 @@
       <c r="N33" s="20"/>
       <c r="O33" s="26"/>
       <c r="P33" s="26"/>
-      <c r="R33">
-        <v>2.3495370370370371E-2</v>
-      </c>
-      <c r="S33">
-        <v>2.8690010144782001E-2</v>
-      </c>
-      <c r="T33">
-        <v>3.1066329294883999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>24</v>
       </c>
@@ -42320,17 +40601,8 @@
       <c r="N34" s="20"/>
       <c r="O34" s="26"/>
       <c r="P34" s="26"/>
-      <c r="R34">
-        <v>1.2534722222222223E-2</v>
-      </c>
-      <c r="S34">
-        <v>2.9106121420157699E-2</v>
-      </c>
-      <c r="T34">
-        <v>3.15178389252831E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>25</v>
       </c>
@@ -42377,17 +40649,8 @@
       <c r="N35" s="20"/>
       <c r="O35" s="26"/>
       <c r="P35" s="26"/>
-      <c r="R35">
-        <v>9.1666666666666667E-3</v>
-      </c>
-      <c r="S35">
-        <v>3.3857494476658798E-2</v>
-      </c>
-      <c r="T35">
-        <v>3.4751977758735397E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>26</v>
       </c>
@@ -42434,17 +40697,8 @@
       <c r="N36" s="20"/>
       <c r="O36" s="26"/>
       <c r="P36" s="26"/>
-      <c r="R36">
-        <v>4.6643518518518522E-2</v>
-      </c>
-      <c r="S36">
-        <v>3.3131594421131699E-2</v>
-      </c>
-      <c r="T36">
-        <v>3.4916924923575898E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>27</v>
       </c>
@@ -42491,17 +40745,8 @@
       <c r="N37" s="20"/>
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
-      <c r="R37">
-        <v>0.13460648148148149</v>
-      </c>
-      <c r="S37">
-        <v>3.2561868824560199E-2</v>
-      </c>
-      <c r="T37">
-        <v>3.5249661626302699E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>28</v>
       </c>
@@ -42548,17 +40793,8 @@
       <c r="N38" s="20"/>
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
-      <c r="R38">
-        <v>1.7326388888888888E-2</v>
-      </c>
-      <c r="S38">
-        <v>3.3262753897649898E-2</v>
-      </c>
-      <c r="T38">
-        <v>3.50553696703228E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>29</v>
       </c>
@@ -42605,17 +40841,8 @@
       <c r="N39" s="20"/>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
-      <c r="R39">
-        <v>5.2708333333333336E-2</v>
-      </c>
-      <c r="S39">
-        <v>3.2659820440259502E-2</v>
-      </c>
-      <c r="T39">
-        <v>3.5355945931532101E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>30</v>
       </c>
@@ -42662,17 +40889,8 @@
       <c r="N40" s="20"/>
       <c r="O40" s="26"/>
       <c r="P40" s="26"/>
-      <c r="R40">
-        <v>3.0405092592592591E-2</v>
-      </c>
-      <c r="S40">
-        <v>3.28669998478998E-2</v>
-      </c>
-      <c r="T40">
-        <v>3.5580749976280697E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>31</v>
       </c>
@@ -42719,17 +40937,8 @@
       <c r="N41" s="20"/>
       <c r="O41" s="26"/>
       <c r="P41" s="26"/>
-      <c r="R41">
-        <v>1.4050925925925927E-2</v>
-      </c>
-      <c r="S41">
-        <v>3.7972205443318502E-2</v>
-      </c>
-      <c r="T41">
-        <v>3.89668119373415E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>32</v>
       </c>
@@ -42776,17 +40985,8 @@
       <c r="N42" s="20"/>
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
-      <c r="R42">
-        <v>8.0439814814814811E-2</v>
-      </c>
-      <c r="S42">
-        <v>3.6468831031862797E-2</v>
-      </c>
-      <c r="T42">
-        <v>3.8415349676614897E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>33</v>
       </c>
@@ -42833,17 +41033,8 @@
       <c r="N43" s="20"/>
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
-      <c r="R43">
-        <v>0.22596064814814817</v>
-      </c>
-      <c r="S43">
-        <v>3.5422965052027203E-2</v>
-      </c>
-      <c r="T43">
-        <v>3.8318827125743797E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>34</v>
       </c>
@@ -42890,17 +41081,8 @@
       <c r="N44" s="20"/>
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
-      <c r="R44">
-        <v>3.27662037037037E-2</v>
-      </c>
-      <c r="S44">
-        <v>3.6383278907420803E-2</v>
-      </c>
-      <c r="T44">
-        <v>3.8325045548263E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>35</v>
       </c>
@@ -42947,17 +41129,8 @@
       <c r="N45" s="20"/>
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
-      <c r="R45">
-        <v>9.2129629629629631E-2</v>
-      </c>
-      <c r="S45">
-        <v>3.5461503712212503E-2</v>
-      </c>
-      <c r="T45">
-        <v>3.8360644248340597E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>36</v>
       </c>
@@ -43004,21 +41177,12 @@
       <c r="N46" s="20"/>
       <c r="O46" s="26"/>
       <c r="P46" s="26"/>
-      <c r="R46">
-        <v>5.8391203703703702E-2</v>
-      </c>
-      <c r="S46">
-        <v>3.5639697028944303E-2</v>
-      </c>
-      <c r="T46">
-        <v>3.85539963715303E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>37</v>
       </c>
@@ -43065,17 +41229,8 @@
       <c r="N48" s="20"/>
       <c r="O48" s="26"/>
       <c r="P48" s="26"/>
-      <c r="R48">
-        <v>5.7870370370370376E-3</v>
-      </c>
-      <c r="S48">
-        <v>2.6653733605347299E-2</v>
-      </c>
-      <c r="T48">
-        <v>2.7359203689984901E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>38</v>
       </c>
@@ -43122,17 +41277,8 @@
       <c r="N49" s="20"/>
       <c r="O49" s="26"/>
       <c r="P49" s="26"/>
-      <c r="R49">
-        <v>2.3750000000000004E-2</v>
-      </c>
-      <c r="S49">
-        <v>2.68305552186088E-2</v>
-      </c>
-      <c r="T49">
-        <v>2.8280263202045901E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>39</v>
       </c>
@@ -43179,17 +41325,8 @@
       <c r="N50" s="20"/>
       <c r="O50" s="26"/>
       <c r="P50" s="26"/>
-      <c r="R50">
-        <v>7.1319444444444449E-2</v>
-      </c>
-      <c r="S50">
-        <v>2.7259624582050501E-2</v>
-      </c>
-      <c r="T50">
-        <v>2.9517547633064401E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>40</v>
       </c>
@@ -43236,17 +41373,8 @@
       <c r="N51" s="20"/>
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
-      <c r="R51">
-        <v>8.7499999999999991E-3</v>
-      </c>
-      <c r="S51">
-        <v>2.7331627125356899E-2</v>
-      </c>
-      <c r="T51">
-        <v>2.8809167213203399E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>41</v>
       </c>
@@ -43293,17 +41421,8 @@
       <c r="N52" s="20"/>
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
-      <c r="R52">
-        <v>2.4131944444444445E-2</v>
-      </c>
-      <c r="S52">
-        <v>2.7675294831939701E-2</v>
-      </c>
-      <c r="T52">
-        <v>2.99685787201837E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>42</v>
       </c>
@@ -43350,17 +41469,8 @@
       <c r="N53" s="20"/>
       <c r="O53" s="26"/>
       <c r="P53" s="26"/>
-      <c r="R53">
-        <v>1.3020833333333334E-2</v>
-      </c>
-      <c r="S53">
-        <v>2.8144131121763401E-2</v>
-      </c>
-      <c r="T53">
-        <v>3.0477298652718299E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43</v>
       </c>
@@ -43407,17 +41517,8 @@
       <c r="N54" s="20"/>
       <c r="O54" s="26"/>
       <c r="P54" s="26"/>
-      <c r="R54">
-        <v>9.571759259259259E-3</v>
-      </c>
-      <c r="S54">
-        <v>3.2032618230596603E-2</v>
-      </c>
-      <c r="T54">
-        <v>3.2878449640234599E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>44</v>
       </c>
@@ -43464,17 +41565,8 @@
       <c r="N55" s="20"/>
       <c r="O55" s="26"/>
       <c r="P55" s="26"/>
-      <c r="R55">
-        <v>4.7905092592592589E-2</v>
-      </c>
-      <c r="S55">
-        <v>3.1777422378748102E-2</v>
-      </c>
-      <c r="T55">
-        <v>3.3489612424722197E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>45</v>
       </c>
@@ -43521,17 +41613,8 @@
       <c r="N56" s="20"/>
       <c r="O56" s="26"/>
       <c r="P56" s="26"/>
-      <c r="R56">
-        <v>0.13817129629629629</v>
-      </c>
-      <c r="S56">
-        <v>3.1566607000504898E-2</v>
-      </c>
-      <c r="T56">
-        <v>3.4172828436149397E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>46</v>
       </c>
@@ -43578,17 +41661,8 @@
       <c r="N57" s="20"/>
       <c r="O57" s="26"/>
       <c r="P57" s="26"/>
-      <c r="R57">
-        <v>1.7812499999999998E-2</v>
-      </c>
-      <c r="S57">
-        <v>3.2029147493146698E-2</v>
-      </c>
-      <c r="T57">
-        <v>3.3755319643430003E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>47</v>
       </c>
@@ -43635,17 +41709,8 @@
       <c r="N58" s="20"/>
       <c r="O58" s="26"/>
       <c r="P58" s="26"/>
-      <c r="R58">
-        <v>5.4039351851851852E-2</v>
-      </c>
-      <c r="S58">
-        <v>3.1763993146140701E-2</v>
-      </c>
-      <c r="T58">
-        <v>3.4387006111535397E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>48</v>
       </c>
@@ -43692,17 +41757,8 @@
       <c r="N59" s="20"/>
       <c r="O59" s="26"/>
       <c r="P59" s="26"/>
-      <c r="R59">
-        <v>3.108796296296296E-2</v>
-      </c>
-      <c r="S59">
-        <v>3.2034200432698702E-2</v>
-      </c>
-      <c r="T59">
-        <v>3.4680199781845999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>49</v>
       </c>
@@ -43749,17 +41805,8 @@
       <c r="N60" s="20"/>
       <c r="O60" s="26"/>
       <c r="P60" s="26"/>
-      <c r="R60">
-        <v>1.4675925925925926E-2</v>
-      </c>
-      <c r="S60">
-        <v>3.6224177324395999E-2</v>
-      </c>
-      <c r="T60">
-        <v>3.7172519234138598E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>50</v>
       </c>
@@ -43806,17 +41853,8 @@
       <c r="N61" s="20"/>
       <c r="O61" s="26"/>
       <c r="P61" s="26"/>
-      <c r="R61">
-        <v>8.2407407407407415E-2</v>
-      </c>
-      <c r="S61">
-        <v>3.5283498818358398E-2</v>
-      </c>
-      <c r="T61">
-        <v>3.7166883474923397E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>51</v>
       </c>
@@ -43863,17 +41901,8 @@
       <c r="N62" s="20"/>
       <c r="O62" s="26"/>
       <c r="P62" s="26"/>
-      <c r="R62">
-        <v>0.22898148148148148</v>
-      </c>
-      <c r="S62">
-        <v>3.4575328556852997E-2</v>
-      </c>
-      <c r="T62">
-        <v>3.7403118554389103E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>52</v>
       </c>
@@ -43920,17 +41949,8 @@
       <c r="N63" s="20"/>
       <c r="O63" s="26"/>
       <c r="P63" s="26"/>
-      <c r="R63">
-        <v>3.3842592592592598E-2</v>
-      </c>
-      <c r="S63">
-        <v>3.53238387553719E-2</v>
-      </c>
-      <c r="T63">
-        <v>3.7209464098999299E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>53</v>
       </c>
@@ -43977,17 +41997,8 @@
       <c r="N64" s="20"/>
       <c r="O64" s="26"/>
       <c r="P64" s="26"/>
-      <c r="R64">
-        <v>9.4074074074074074E-2</v>
-      </c>
-      <c r="S64">
-        <v>3.4696237868694899E-2</v>
-      </c>
-      <c r="T64">
-        <v>3.7534313554217498E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>54</v>
       </c>
@@ -44034,21 +42045,12 @@
       <c r="N65" s="20"/>
       <c r="O65" s="26"/>
       <c r="P65" s="26"/>
-      <c r="R65">
-        <v>5.9421296296296298E-2</v>
-      </c>
-      <c r="S65">
-        <v>3.4928770386357902E-2</v>
-      </c>
-      <c r="T65">
-        <v>3.7786627483973503E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>55</v>
       </c>
@@ -44095,17 +42097,8 @@
       <c r="N67" s="20"/>
       <c r="O67" s="26"/>
       <c r="P67" s="26"/>
-      <c r="R67">
-        <v>5.9953703703703697E-3</v>
-      </c>
-      <c r="S67">
-        <v>2.5454443782729E-2</v>
-      </c>
-      <c r="T67">
-        <v>2.6127957976233102E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>56</v>
       </c>
@@ -44152,17 +42145,8 @@
       <c r="N68" s="20"/>
       <c r="O68" s="26"/>
       <c r="P68" s="26"/>
-      <c r="R68">
-        <v>2.476851851851852E-2</v>
-      </c>
-      <c r="S68">
-        <v>2.5640544180304599E-2</v>
-      </c>
-      <c r="T68">
-        <v>2.7025548035815101E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>57</v>
       </c>
@@ -44209,17 +42193,8 @@
       <c r="N69" s="20"/>
       <c r="O69" s="26"/>
       <c r="P69" s="26"/>
-      <c r="R69">
-        <v>7.3344907407407414E-2</v>
-      </c>
-      <c r="S69">
-        <v>2.62069875586954E-2</v>
-      </c>
-      <c r="T69">
-        <v>2.8377499080487301E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>58</v>
       </c>
@@ -44266,17 +42241,8 @@
       <c r="N70" s="20"/>
       <c r="O70" s="26"/>
       <c r="P70" s="26"/>
-      <c r="R70">
-        <v>9.0624999999999994E-3</v>
-      </c>
-      <c r="S70">
-        <v>2.6156605132578999E-2</v>
-      </c>
-      <c r="T70">
-        <v>2.75702736609875E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>59</v>
       </c>
@@ -44323,17 +42289,8 @@
       <c r="N71" s="20"/>
       <c r="O71" s="26"/>
       <c r="P71" s="26"/>
-      <c r="R71">
-        <v>2.5057870370370373E-2</v>
-      </c>
-      <c r="S71">
-        <v>2.6680780280074701E-2</v>
-      </c>
-      <c r="T71">
-        <v>2.8891597085456199E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>60</v>
       </c>
@@ -44380,17 +42337,8 @@
       <c r="N72" s="20"/>
       <c r="O72" s="26"/>
       <c r="P72" s="26"/>
-      <c r="R72">
-        <v>1.3356481481481483E-2</v>
-      </c>
-      <c r="S72">
-        <v>2.7182398106702001E-2</v>
-      </c>
-      <c r="T72">
-        <v>2.94358872619182E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>61</v>
       </c>
@@ -44437,17 +42385,8 @@
       <c r="N73" s="20"/>
       <c r="O73" s="26"/>
       <c r="P73" s="26"/>
-      <c r="R73">
-        <v>9.8726851851851857E-3</v>
-      </c>
-      <c r="S73">
-        <v>3.0556420609683301E-2</v>
-      </c>
-      <c r="T73">
-        <v>3.1362727258367903E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>62</v>
       </c>
@@ -44494,17 +42433,8 @@
       <c r="N74" s="20"/>
       <c r="O74" s="26"/>
       <c r="P74" s="26"/>
-      <c r="R74">
-        <v>4.9861111111111113E-2</v>
-      </c>
-      <c r="S74">
-        <v>3.05019712337413E-2</v>
-      </c>
-      <c r="T74">
-        <v>3.2144630022593303E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>63</v>
       </c>
@@ -44551,17 +42481,8 @@
       <c r="N75" s="20"/>
       <c r="O75" s="26"/>
       <c r="P75" s="26"/>
-      <c r="R75">
-        <v>0.14052083333333334</v>
-      </c>
-      <c r="S75">
-        <v>3.0541872463582899E-2</v>
-      </c>
-      <c r="T75">
-        <v>3.3062888446378801E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>64</v>
       </c>
@@ -44608,17 +42529,8 @@
       <c r="N76" s="20"/>
       <c r="O76" s="26"/>
       <c r="P76" s="26"/>
-      <c r="R76">
-        <v>1.8472222222222223E-2</v>
-      </c>
-      <c r="S76">
-        <v>3.08299962533659E-2</v>
-      </c>
-      <c r="T76">
-        <v>3.24908752347133E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>65</v>
       </c>
@@ -44665,17 +42577,8 @@
       <c r="N77" s="20"/>
       <c r="O77" s="26"/>
       <c r="P77" s="26"/>
-      <c r="R77">
-        <v>5.543981481481481E-2</v>
-      </c>
-      <c r="S77">
-        <v>3.08206979794096E-2</v>
-      </c>
-      <c r="T77">
-        <v>3.3365433493934102E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>66</v>
       </c>
@@ -44722,17 +42625,8 @@
       <c r="N78" s="20"/>
       <c r="O78" s="26"/>
       <c r="P78" s="26"/>
-      <c r="R78">
-        <v>3.1932870370370368E-2</v>
-      </c>
-      <c r="S78">
-        <v>3.1147187524916301E-2</v>
-      </c>
-      <c r="T78">
-        <v>3.3719697323693801E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>67</v>
       </c>
@@ -44779,17 +42673,8 @@
       <c r="N79" s="20"/>
       <c r="O79" s="26"/>
       <c r="P79" s="26"/>
-      <c r="R79">
-        <v>1.5196759259259259E-2</v>
-      </c>
-      <c r="S79">
-        <v>3.4652915643865197E-2</v>
-      </c>
-      <c r="T79">
-        <v>3.5559368566080302E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>68</v>
       </c>
@@ -44836,17 +42721,8 @@
       <c r="N80" s="20"/>
       <c r="O80" s="26"/>
       <c r="P80" s="26"/>
-      <c r="R80">
-        <v>8.4490740740740741E-2</v>
-      </c>
-      <c r="S80">
-        <v>3.4061324422799799E-2</v>
-      </c>
-      <c r="T80">
-        <v>3.58785553142979E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>69</v>
       </c>
@@ -44893,17 +42769,8 @@
       <c r="N81" s="20"/>
       <c r="O81" s="26"/>
       <c r="P81" s="26"/>
-      <c r="R81">
-        <v>0.23405092592592591</v>
-      </c>
-      <c r="S81">
-        <v>3.3622021615376502E-2</v>
-      </c>
-      <c r="T81">
-        <v>3.6371309713458699E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>70</v>
       </c>
@@ -44950,17 +42817,8 @@
       <c r="N82" s="20"/>
       <c r="O82" s="26"/>
       <c r="P82" s="26"/>
-      <c r="R82">
-        <v>3.4629629629629628E-2</v>
-      </c>
-      <c r="S82">
-        <v>3.4196562320156401E-2</v>
-      </c>
-      <c r="T82">
-        <v>3.6021305018300802E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>71</v>
       </c>
@@ -45007,17 +42865,8 @@
       <c r="N83" s="20"/>
       <c r="O83" s="26"/>
       <c r="P83" s="26"/>
-      <c r="R83">
-        <v>9.5393518518518516E-2</v>
-      </c>
-      <c r="S83">
-        <v>3.38190386620928E-2</v>
-      </c>
-      <c r="T83">
-        <v>3.6585086890885403E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>72</v>
       </c>
@@ -45064,61 +42913,52 @@
       <c r="N84" s="20"/>
       <c r="O84" s="26"/>
       <c r="P84" s="26"/>
-      <c r="R84">
-        <v>6.0092592592592593E-2</v>
-      </c>
-      <c r="S84">
-        <v>3.41043109232139E-2</v>
-      </c>
-      <c r="T84">
-        <v>3.68946271047755E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O85" s="26"/>
       <c r="P85" s="26"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O86" s="26"/>
       <c r="P86" s="26"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O87" s="26"/>
       <c r="P87" s="26"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O88" s="26"/>
       <c r="P88" s="26"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O89" s="26"/>
       <c r="P89" s="26"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O90" s="26"/>
       <c r="P90" s="26"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O91" s="26"/>
       <c r="P91" s="26"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O92" s="26"/>
       <c r="P92" s="26"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O93" s="26"/>
       <c r="P93" s="26"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O94" s="26"/>
       <c r="P94" s="26"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O95" s="26"/>
       <c r="P95" s="26"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O96" s="26"/>
       <c r="P96" s="26"/>
     </row>
@@ -45159,11 +42999,11 @@
       <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
@@ -46141,14 +43981,14 @@
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
@@ -51254,14 +49094,14 @@
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
